--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jam2-Jam3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jam2-Jam3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>78.14483633333333</v>
+        <v>115.5575153333333</v>
       </c>
       <c r="H2">
-        <v>234.434509</v>
+        <v>346.672546</v>
       </c>
       <c r="I2">
-        <v>0.8749092620517618</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="J2">
-        <v>0.8749092620517619</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.007177</v>
+        <v>17.78713366666667</v>
       </c>
       <c r="N2">
-        <v>36.021531</v>
+        <v>53.361401</v>
       </c>
       <c r="O2">
-        <v>0.1771030991518577</v>
+        <v>0.2123673935064285</v>
       </c>
       <c r="P2">
-        <v>0.1771030991518577</v>
+        <v>0.2123673935064285</v>
       </c>
       <c r="Q2">
-        <v>938.2988814903642</v>
+        <v>2055.436971421883</v>
       </c>
       <c r="R2">
-        <v>8444.689933413278</v>
+        <v>18498.93274279695</v>
       </c>
       <c r="S2">
-        <v>0.1549491417860318</v>
+        <v>0.192152246545087</v>
       </c>
       <c r="T2">
-        <v>0.1549491417860319</v>
+        <v>0.192152246545087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>78.14483633333333</v>
+        <v>115.5575153333333</v>
       </c>
       <c r="H3">
-        <v>234.434509</v>
+        <v>346.672546</v>
       </c>
       <c r="I3">
-        <v>0.8749092620517618</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="J3">
-        <v>0.8749092620517619</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.402647</v>
       </c>
       <c r="O3">
-        <v>0.1691437102639352</v>
+        <v>0.1369154545457259</v>
       </c>
       <c r="P3">
-        <v>0.1691437102639352</v>
+        <v>0.1369154545457259</v>
       </c>
       <c r="Q3">
-        <v>896.1297397494803</v>
+        <v>1325.161469403251</v>
       </c>
       <c r="R3">
-        <v>8065.167657745323</v>
+        <v>11926.45322462926</v>
       </c>
       <c r="S3">
-        <v>0.1479853987277166</v>
+        <v>0.1238825402681537</v>
       </c>
       <c r="T3">
-        <v>0.1479853987277166</v>
+        <v>0.1238825402681537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>78.14483633333333</v>
+        <v>115.5575153333333</v>
       </c>
       <c r="H4">
-        <v>234.434509</v>
+        <v>346.672546</v>
       </c>
       <c r="I4">
-        <v>0.8749092620517618</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="J4">
-        <v>0.8749092620517619</v>
+        <v>0.9048104954928987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.21517</v>
+        <v>53.74594866666666</v>
       </c>
       <c r="N4">
-        <v>132.64551</v>
+        <v>161.237846</v>
       </c>
       <c r="O4">
-        <v>0.6521635882044752</v>
+        <v>0.6416934422244821</v>
       </c>
       <c r="P4">
-        <v>0.6521635882044752</v>
+        <v>0.6416934422244821</v>
       </c>
       <c r="Q4">
-        <v>3455.18722310051</v>
+        <v>6210.74828715288</v>
       </c>
       <c r="R4">
-        <v>31096.68500790459</v>
+        <v>55896.73458437592</v>
       </c>
       <c r="S4">
-        <v>0.5705839636930065</v>
+        <v>0.5806109614136774</v>
       </c>
       <c r="T4">
-        <v>0.5705839636930065</v>
+        <v>0.5806109614136774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>115.5575153333333</v>
+      </c>
+      <c r="H5">
+        <v>346.672546</v>
+      </c>
+      <c r="I5">
+        <v>0.9048104954928987</v>
+      </c>
+      <c r="J5">
+        <v>0.9048104954928987</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>78.14483633333333</v>
-      </c>
-      <c r="H5">
-        <v>234.434509</v>
-      </c>
-      <c r="I5">
-        <v>0.8749092620517618</v>
-      </c>
-      <c r="J5">
-        <v>0.8749092620517619</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.1077713333333333</v>
+        <v>0.7557936666666666</v>
       </c>
       <c r="N5">
-        <v>0.323314</v>
+        <v>2.267381</v>
       </c>
       <c r="O5">
-        <v>0.001589602379731826</v>
+        <v>0.009023709723363511</v>
       </c>
       <c r="P5">
-        <v>0.001589602379731826</v>
+        <v>0.009023709723363511</v>
       </c>
       <c r="Q5">
-        <v>8.421773204758443</v>
+        <v>87.33763822466955</v>
       </c>
       <c r="R5">
-        <v>75.795958842826</v>
+        <v>786.038744022026</v>
       </c>
       <c r="S5">
-        <v>0.001390757845006896</v>
+        <v>0.008164747265980626</v>
       </c>
       <c r="T5">
-        <v>0.001390757845006896</v>
+        <v>0.008164747265980626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.519651666666667</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H6">
         <v>16.558955</v>
       </c>
       <c r="I6">
-        <v>0.06179799706620126</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="J6">
-        <v>0.06179799706620127</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.007177</v>
+        <v>17.78713366666667</v>
       </c>
       <c r="N6">
-        <v>36.021531</v>
+        <v>53.361401</v>
       </c>
       <c r="O6">
-        <v>0.1771030991518577</v>
+        <v>0.2123673935064285</v>
       </c>
       <c r="P6">
-        <v>0.1771030991518577</v>
+        <v>0.2123673935064285</v>
       </c>
       <c r="Q6">
-        <v>66.27543454001167</v>
+        <v>98.17878198843943</v>
       </c>
       <c r="R6">
-        <v>596.478910860105</v>
+        <v>883.6090378959549</v>
       </c>
       <c r="S6">
-        <v>0.01094461680180165</v>
+        <v>0.009178230120619359</v>
       </c>
       <c r="T6">
-        <v>0.01094461680180166</v>
+        <v>0.009178230120619359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.519651666666667</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H7">
         <v>16.558955</v>
       </c>
       <c r="I7">
-        <v>0.06179799706620126</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="J7">
-        <v>0.06179799706620127</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>34.402647</v>
       </c>
       <c r="O7">
-        <v>0.1691437102639352</v>
+        <v>0.1369154545457259</v>
       </c>
       <c r="P7">
-        <v>0.1691437102639352</v>
+        <v>0.1369154545457259</v>
       </c>
       <c r="Q7">
-        <v>63.29687595043168</v>
+        <v>63.29687595043166</v>
       </c>
       <c r="R7">
-        <v>569.6718835538851</v>
+        <v>569.671883553885</v>
       </c>
       <c r="S7">
-        <v>0.01045274251065707</v>
+        <v>0.005917299864829921</v>
       </c>
       <c r="T7">
-        <v>0.01045274251065707</v>
+        <v>0.005917299864829921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.519651666666667</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H8">
         <v>16.558955</v>
       </c>
       <c r="I8">
-        <v>0.06179799706620126</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="J8">
-        <v>0.06179799706620127</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.21517</v>
+        <v>53.74594866666666</v>
       </c>
       <c r="N8">
-        <v>132.64551</v>
+        <v>161.237846</v>
       </c>
       <c r="O8">
-        <v>0.6521635882044752</v>
+        <v>0.6416934422244821</v>
       </c>
       <c r="P8">
-        <v>0.6521635882044752</v>
+        <v>0.6416934422244821</v>
       </c>
       <c r="Q8">
-        <v>244.05233678245</v>
+        <v>296.6589151345477</v>
       </c>
       <c r="R8">
-        <v>2196.47103104205</v>
+        <v>2669.930236210929</v>
       </c>
       <c r="S8">
-        <v>0.04030240351054344</v>
+        <v>0.02773311845281172</v>
       </c>
       <c r="T8">
-        <v>0.04030240351054345</v>
+        <v>0.02773311845281172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.519651666666667</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H9">
         <v>16.558955</v>
       </c>
       <c r="I9">
-        <v>0.06179799706620126</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="J9">
-        <v>0.06179799706620127</v>
+        <v>0.04321864090845719</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1077713333333333</v>
+        <v>0.7557936666666666</v>
       </c>
       <c r="N9">
-        <v>0.323314</v>
+        <v>2.267381</v>
       </c>
       <c r="O9">
-        <v>0.001589602379731826</v>
+        <v>0.009023709723363511</v>
       </c>
       <c r="P9">
-        <v>0.001589602379731826</v>
+        <v>0.009023709723363511</v>
       </c>
       <c r="Q9">
-        <v>0.5948602196522222</v>
+        <v>4.171717771872776</v>
       </c>
       <c r="R9">
-        <v>5.35374197687</v>
+        <v>37.54545994685499</v>
       </c>
       <c r="S9">
-        <v>9.82342431990939E-05</v>
+        <v>0.0003899924701962012</v>
       </c>
       <c r="T9">
-        <v>9.823424319909391E-05</v>
+        <v>0.0003899924701962012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.381408333333333</v>
+        <v>6.580297333333334</v>
       </c>
       <c r="H10">
-        <v>16.144225</v>
+        <v>19.740892</v>
       </c>
       <c r="I10">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="J10">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.007177</v>
+        <v>17.78713366666667</v>
       </c>
       <c r="N10">
-        <v>36.021531</v>
+        <v>53.361401</v>
       </c>
       <c r="O10">
-        <v>0.1771030991518577</v>
+        <v>0.2123673935064285</v>
       </c>
       <c r="P10">
-        <v>0.1771030991518577</v>
+        <v>0.2123673935064285</v>
       </c>
       <c r="Q10">
-        <v>64.61552236760832</v>
+        <v>117.0446282344102</v>
       </c>
       <c r="R10">
-        <v>581.5397013084748</v>
+        <v>1053.401654109692</v>
       </c>
       <c r="S10">
-        <v>0.01067050162205684</v>
+        <v>0.01094190119861391</v>
       </c>
       <c r="T10">
-        <v>0.01067050162205685</v>
+        <v>0.01094190119861391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.381408333333333</v>
+        <v>6.580297333333334</v>
       </c>
       <c r="H11">
-        <v>16.144225</v>
+        <v>19.740892</v>
       </c>
       <c r="I11">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="J11">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.402647</v>
       </c>
       <c r="O11">
-        <v>0.1691437102639352</v>
+        <v>0.1369154545457259</v>
       </c>
       <c r="P11">
-        <v>0.1691437102639352</v>
+        <v>0.1369154545457259</v>
       </c>
       <c r="Q11">
-        <v>61.71156375150833</v>
+        <v>75.45988210456935</v>
       </c>
       <c r="R11">
-        <v>555.404073763575</v>
+        <v>679.1389389411241</v>
       </c>
       <c r="S11">
-        <v>0.0101909466484517</v>
+        <v>0.007054356845780552</v>
       </c>
       <c r="T11">
-        <v>0.0101909466484517</v>
+        <v>0.007054356845780552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.381408333333333</v>
+        <v>6.580297333333334</v>
       </c>
       <c r="H12">
-        <v>16.144225</v>
+        <v>19.740892</v>
       </c>
       <c r="I12">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="J12">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.21517</v>
+        <v>53.74594866666666</v>
       </c>
       <c r="N12">
-        <v>132.64551</v>
+        <v>161.237846</v>
       </c>
       <c r="O12">
-        <v>0.6521635882044752</v>
+        <v>0.6416934422244821</v>
       </c>
       <c r="P12">
-        <v>0.6521635882044752</v>
+        <v>0.6416934422244821</v>
       </c>
       <c r="Q12">
-        <v>237.93988429775</v>
+        <v>353.6643226887369</v>
       </c>
       <c r="R12">
-        <v>2141.45895867975</v>
+        <v>3182.978904198632</v>
       </c>
       <c r="S12">
-        <v>0.03929300311009983</v>
+        <v>0.0330622612477758</v>
       </c>
       <c r="T12">
-        <v>0.03929300311009983</v>
+        <v>0.0330622612477758</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.381408333333333</v>
+        <v>6.580297333333334</v>
       </c>
       <c r="H13">
-        <v>16.144225</v>
+        <v>19.740892</v>
       </c>
       <c r="I13">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="J13">
-        <v>0.06025022528209618</v>
+        <v>0.05152345196666309</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1077713333333333</v>
+        <v>0.7557936666666666</v>
       </c>
       <c r="N13">
-        <v>0.323314</v>
+        <v>2.267381</v>
       </c>
       <c r="O13">
-        <v>0.001589602379731826</v>
+        <v>0.009023709723363511</v>
       </c>
       <c r="P13">
-        <v>0.001589602379731826</v>
+        <v>0.009023709723363511</v>
       </c>
       <c r="Q13">
-        <v>0.5799615512944444</v>
+        <v>4.973347049316889</v>
       </c>
       <c r="R13">
-        <v>5.21965396165</v>
+        <v>44.760123443852</v>
       </c>
       <c r="S13">
-        <v>9.57739014877987E-05</v>
+        <v>0.0004649326744928305</v>
       </c>
       <c r="T13">
-        <v>9.577390148779871E-05</v>
+        <v>0.0004649326744928305</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2717503333333334</v>
+        <v>0.057141</v>
       </c>
       <c r="H14">
-        <v>0.8152510000000001</v>
+        <v>0.171423</v>
       </c>
       <c r="I14">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="J14">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.007177</v>
+        <v>17.78713366666667</v>
       </c>
       <c r="N14">
-        <v>36.021531</v>
+        <v>53.361401</v>
       </c>
       <c r="O14">
-        <v>0.1771030991518577</v>
+        <v>0.2123673935064285</v>
       </c>
       <c r="P14">
-        <v>0.1771030991518577</v>
+        <v>0.2123673935064285</v>
       </c>
       <c r="Q14">
-        <v>3.262954352142334</v>
+        <v>1.016374604847</v>
       </c>
       <c r="R14">
-        <v>29.366589169281</v>
+        <v>9.147371443622999</v>
       </c>
       <c r="S14">
-        <v>0.0005388389419673887</v>
+        <v>9.501564210826907E-05</v>
       </c>
       <c r="T14">
-        <v>0.0005388389419673888</v>
+        <v>9.501564210826907E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2717503333333334</v>
+        <v>0.057141</v>
       </c>
       <c r="H15">
-        <v>0.8152510000000001</v>
+        <v>0.171423</v>
       </c>
       <c r="I15">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="J15">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.402647</v>
       </c>
       <c r="O15">
-        <v>0.1691437102639352</v>
+        <v>0.1369154545457259</v>
       </c>
       <c r="P15">
-        <v>0.1691437102639352</v>
+        <v>0.1369154545457259</v>
       </c>
       <c r="Q15">
-        <v>3.116310263266334</v>
+        <v>0.655267217409</v>
       </c>
       <c r="R15">
-        <v>28.046792369397</v>
+        <v>5.897404956681</v>
       </c>
       <c r="S15">
-        <v>0.0005146223771098892</v>
+        <v>6.125756696172795E-05</v>
       </c>
       <c r="T15">
-        <v>0.0005146223771098892</v>
+        <v>6.125756696172795E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2717503333333334</v>
+        <v>0.057141</v>
       </c>
       <c r="H16">
-        <v>0.8152510000000001</v>
+        <v>0.171423</v>
       </c>
       <c r="I16">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="J16">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>44.21517</v>
+        <v>53.74594866666666</v>
       </c>
       <c r="N16">
-        <v>132.64551</v>
+        <v>161.237846</v>
       </c>
       <c r="O16">
-        <v>0.6521635882044752</v>
+        <v>0.6416934422244821</v>
       </c>
       <c r="P16">
-        <v>0.6521635882044752</v>
+        <v>0.6416934422244821</v>
       </c>
       <c r="Q16">
-        <v>12.01548718589</v>
+        <v>3.071097252762</v>
       </c>
       <c r="R16">
-        <v>108.13938467301</v>
+        <v>27.639875274858</v>
       </c>
       <c r="S16">
-        <v>0.001984217890825481</v>
+        <v>0.0002871011102171812</v>
       </c>
       <c r="T16">
-        <v>0.001984217890825481</v>
+        <v>0.0002871011102171812</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2717503333333334</v>
+        <v>0.057141</v>
       </c>
       <c r="H17">
-        <v>0.8152510000000001</v>
+        <v>0.171423</v>
       </c>
       <c r="I17">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="J17">
-        <v>0.003042515599940796</v>
+        <v>0.0004474116319810314</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1077713333333333</v>
+        <v>0.7557936666666666</v>
       </c>
       <c r="N17">
-        <v>0.323314</v>
+        <v>2.267381</v>
       </c>
       <c r="O17">
-        <v>0.001589602379731826</v>
+        <v>0.009023709723363511</v>
       </c>
       <c r="P17">
-        <v>0.001589602379731826</v>
+        <v>0.009023709723363511</v>
       </c>
       <c r="Q17">
-        <v>0.02928689575711111</v>
+        <v>0.04318680590699999</v>
       </c>
       <c r="R17">
-        <v>0.263582061814</v>
+        <v>0.388681253163</v>
       </c>
       <c r="S17">
-        <v>4.836390038037093E-06</v>
+        <v>4.037312693853169E-06</v>
       </c>
       <c r="T17">
-        <v>4.836390038037093E-06</v>
+        <v>4.037312693853169E-06</v>
       </c>
     </row>
   </sheetData>
